--- a/data/trans_camb/DC-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/DC-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 3,63</t>
+          <t>-7,61; 3,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 6,92</t>
+          <t>-3,99; 6,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 7,99</t>
+          <t>-5,08; 8,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 9,14</t>
+          <t>-2,79; 8,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 4,23</t>
+          <t>-4,84; 4,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 6,71</t>
+          <t>-1,26; 6,91</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,27; 42,78</t>
+          <t>-53,12; 38,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,05; 78,97</t>
+          <t>-28,52; 77,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,65; 53,6</t>
+          <t>-24,46; 52,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 60,94</t>
+          <t>-12,7; 57,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,42; 33,57</t>
+          <t>-27,13; 37,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 53,04</t>
+          <t>-6,87; 55,88</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,78; -10,55</t>
+          <t>-19,78; -10,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,0; -11,58</t>
+          <t>-20,2; -11,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 3,11</t>
+          <t>-7,71; 3,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,61; -10,7</t>
+          <t>-21,25; -10,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-27,0; -17,34</t>
+          <t>-26,82; -17,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 10,05</t>
+          <t>-1,36; 10,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,93; -11,92</t>
+          <t>-18,83; -12,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,09; -15,39</t>
+          <t>-22,24; -15,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 5,21</t>
+          <t>-2,87; 5,14</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-79,7; -53,67</t>
+          <t>-80,91; -55,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-80,69; -59,4</t>
+          <t>-81,14; -58,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,36; 16,47</t>
+          <t>-32,74; 18,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,87; -35,75</t>
+          <t>-58,93; -35,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-75,79; -56,99</t>
+          <t>-76,15; -57,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 34,27</t>
+          <t>-3,6; 33,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-65,24; -47,2</t>
+          <t>-64,52; -46,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-75,66; -61,77</t>
+          <t>-75,98; -61,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 20,39</t>
+          <t>-9,98; 20,4</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 3,0</t>
+          <t>-6,09; 2,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 2,54</t>
+          <t>-6,57; 2,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,85; 19,01</t>
+          <t>7,96; 18,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 4,09</t>
+          <t>-7,76; 5,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 3,18</t>
+          <t>-8,79; 2,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,75; 22,98</t>
+          <t>10,8; 23,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 2,2</t>
+          <t>-5,56; 1,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 1,18</t>
+          <t>-6,42; 0,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,5; 19,54</t>
+          <t>11,44; 19,28</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,48; 39,59</t>
+          <t>-51,74; 36,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-55,91; 36,91</t>
+          <t>-54,71; 27,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>58,16; 234,7</t>
+          <t>59,6; 247,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,71; 24,34</t>
+          <t>-35,29; 31,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,74; 19,07</t>
+          <t>-39,14; 17,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,66; 140,95</t>
+          <t>46,73; 145,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-33,12; 16,53</t>
+          <t>-32,98; 15,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,11; 9,16</t>
+          <t>-37,86; 7,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66,26; 152,68</t>
+          <t>67,42; 148,51</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,15; -5,44</t>
+          <t>-14,74; -5,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,46; -3,88</t>
+          <t>-14,11; -3,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 4,6</t>
+          <t>-7,92; 4,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 6,8</t>
+          <t>-3,36; 6,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 6,79</t>
+          <t>-4,38; 7,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,85; 26,37</t>
+          <t>11,92; 26,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,73; -0,7</t>
+          <t>-7,54; -0,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 0,06</t>
+          <t>-7,19; 0,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,28; 15,8</t>
+          <t>4,94; 15,33</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-65,82; -32,32</t>
+          <t>-64,72; -31,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,67; -21,83</t>
+          <t>-64,93; -24,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-34,88; 25,95</t>
+          <t>-35,48; 28,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 43,13</t>
+          <t>-16,02; 44,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 41,73</t>
+          <t>-20,62; 45,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>54,36; 164,21</t>
+          <t>53,68; 161,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-36,58; -4,34</t>
+          <t>-35,02; -3,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-36,35; 0,59</t>
+          <t>-35,43; 1,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>25,45; 90,88</t>
+          <t>22,99; 89,88</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,02; 13,86</t>
+          <t>2,0; 14,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 8,12</t>
+          <t>-2,44; 8,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,85; 17,51</t>
+          <t>5,18; 17,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,17; 20,97</t>
+          <t>3,19; 19,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 3,77</t>
+          <t>-10,41; 4,03</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,39; 19,89</t>
+          <t>0,7; 19,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,43; 15,23</t>
+          <t>4,64; 14,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 4,46</t>
+          <t>-4,71; 4,14</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,11; 17,92</t>
+          <t>6,68; 17,49</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>15,57; 294,39</t>
+          <t>15,13; 306,38</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,5; 166,82</t>
+          <t>-29,03; 172,31</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>54,23; 377,97</t>
+          <t>47,88; 374,24</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>19,77; 154,96</t>
+          <t>14,19; 134,43</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-47,53; 27,13</t>
+          <t>-48,1; 27,44</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>12,91; 138,99</t>
+          <t>7,45; 136,26</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>27,27; 144,97</t>
+          <t>29,25; 142,48</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-32,34; 44,18</t>
+          <t>-31,19; 39,01</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>46,54; 174,66</t>
+          <t>44,18; 163,27</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 5,67</t>
+          <t>-6,85; 4,98</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,95; -2,16</t>
+          <t>-13,65; -2,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6,63; 19,38</t>
+          <t>6,52; 19,4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 6,84</t>
+          <t>-7,98; 7,08</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-18,6; -4,96</t>
+          <t>-17,74; -4,72</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>11,58; 25,73</t>
+          <t>10,73; 25,84</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 4,14</t>
+          <t>-5,3; 4,41</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-14,1; -5,58</t>
+          <t>-13,74; -5,41</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11,18; 20,7</t>
+          <t>11,48; 20,44</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-38,67; 44,45</t>
+          <t>-37,21; 38,82</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-69,98; -15,61</t>
+          <t>-72,55; -19,56</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>32,62; 153,3</t>
+          <t>32,48; 151,48</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-27,37; 31,95</t>
+          <t>-27,41; 34,01</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-65,03; -22,56</t>
+          <t>-64,02; -21,34</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>41,2; 124,82</t>
+          <t>37,18; 126,36</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-24,49; 23,0</t>
+          <t>-23,17; 25,14</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-62,16; -30,34</t>
+          <t>-61,97; -30,37</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>49,43; 116,38</t>
+          <t>51,43; 117,05</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -0,17</t>
+          <t>-8,08; -0,2</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-10,06; -2,42</t>
+          <t>-10,92; -3,11</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11,03; 20,75</t>
+          <t>11,11; 21,42</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,53; 10,95</t>
+          <t>1,77; 10,66</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 2,54</t>
+          <t>-5,47; 3,17</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>36,69; 58,72</t>
+          <t>36,87; 58,93</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 3,85</t>
+          <t>-1,98; 4,11</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,98; -1,11</t>
+          <t>-6,87; -1,4</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>26,7; 46,3</t>
+          <t>26,77; 45,02</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-44,62; -0,57</t>
+          <t>-45,13; -2,1</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-56,91; -17,61</t>
+          <t>-58,51; -21,03</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>60,8; 153,38</t>
+          <t>62,09; 157,01</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>7,56; 69,81</t>
+          <t>8,92; 67,65</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-29,72; 16,37</t>
+          <t>-28,22; 20,15</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>185,69; 370,06</t>
+          <t>189,9; 375,12</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 25,37</t>
+          <t>-10,89; 26,98</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-37,89; -7,59</t>
+          <t>-37,36; -8,83</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>147,02; 291,36</t>
+          <t>151,42; 284,06</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-15,02; -7,86</t>
+          <t>-15,12; -7,76</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-14,61; -7,59</t>
+          <t>-14,47; -7,26</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 2,34</t>
+          <t>-5,93; 2,72</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-16,91; -8,64</t>
+          <t>-16,88; -8,38</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-19,27; -11,52</t>
+          <t>-19,53; -10,43</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,02; 8,88</t>
+          <t>-0,26; 8,68</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-15,08; -9,45</t>
+          <t>-14,76; -9,4</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-15,92; -10,54</t>
+          <t>-15,94; -10,27</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 4,23</t>
+          <t>-2,43; 4,23</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-68,32; -44,03</t>
+          <t>-68,36; -43,35</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-67,2; -42,06</t>
+          <t>-66,54; -40,87</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-30,24; 13,07</t>
+          <t>-28,02; 15,97</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-55,21; -33,06</t>
+          <t>-55,39; -32,86</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-63,7; -43,66</t>
+          <t>-63,67; -41,82</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 33,57</t>
+          <t>-0,64; 34,0</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-58,6; -41,75</t>
+          <t>-57,34; -41,65</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-62,17; -46,99</t>
+          <t>-61,99; -46,11</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 18,67</t>
+          <t>-9,41; 18,97</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-8,54; -5,14</t>
+          <t>-8,31; -5,01</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-9,46; -6,31</t>
+          <t>-9,32; -6,14</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,4</t>
+          <t>3,17; 7,43</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-5,43; -1,33</t>
+          <t>-5,23; -1,11</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -6,26</t>
+          <t>-10,16; -6,37</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>14,06; 22,22</t>
+          <t>14,29; 22,69</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-6,23; -3,63</t>
+          <t>-6,31; -3,76</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-9,17; -6,72</t>
+          <t>-9,22; -6,87</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>9,72; 15,22</t>
+          <t>9,79; 15,38</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-48,83; -32,53</t>
+          <t>-47,57; -31,96</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-54,37; -39,87</t>
+          <t>-53,91; -39,32</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>19,37; 47,57</t>
+          <t>17,86; 47,98</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-22,36; -5,96</t>
+          <t>-21,38; -4,85</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-42,03; -28,04</t>
+          <t>-41,52; -28,39</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>57,47; 95,9</t>
+          <t>58,91; 99,15</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-30,34; -18,97</t>
+          <t>-30,45; -19,46</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-44,69; -35,05</t>
+          <t>-44,98; -35,69</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>47,25; 76,67</t>
+          <t>47,68; 76,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DC-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/DC-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 3,17</t>
+          <t>-7,12; 3,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 6,98</t>
+          <t>-3,79; 7,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 8,04</t>
+          <t>-4,92; 8,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 8,69</t>
+          <t>-2,57; 9,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 4,78</t>
+          <t>-4,79; 4,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 6,91</t>
+          <t>-1,54; 6,79</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,12; 38,38</t>
+          <t>-51,28; 39,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,52; 77,53</t>
+          <t>-27,07; 78,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,46; 52,66</t>
+          <t>-22,9; 57,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 57,22</t>
+          <t>-11,36; 59,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,13; 37,22</t>
+          <t>-27,79; 32,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 55,88</t>
+          <t>-9,69; 53,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,78; -10,84</t>
+          <t>-19,79; -10,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,2; -11,32</t>
+          <t>-20,03; -11,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 3,56</t>
+          <t>-8,42; 3,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,25; -10,37</t>
+          <t>-20,73; -9,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,82; -17,44</t>
+          <t>-26,89; -17,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 10,06</t>
+          <t>-1,48; 10,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,83; -12,03</t>
+          <t>-18,95; -11,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,24; -15,6</t>
+          <t>-22,11; -15,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 5,14</t>
+          <t>-2,74; 5,42</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-80,91; -55,16</t>
+          <t>-80,08; -53,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-81,14; -58,72</t>
+          <t>-80,65; -59,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,74; 18,18</t>
+          <t>-34,62; 17,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,93; -35,3</t>
+          <t>-57,98; -32,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,15; -57,66</t>
+          <t>-76,15; -56,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 33,86</t>
+          <t>-4,22; 34,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-64,52; -46,15</t>
+          <t>-64,45; -46,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-75,98; -61,5</t>
+          <t>-76,32; -61,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 20,4</t>
+          <t>-9,23; 21,83</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 2,87</t>
+          <t>-5,68; 3,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 2,02</t>
+          <t>-6,31; 1,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,96; 18,87</t>
+          <t>7,82; 18,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 5,34</t>
+          <t>-7,81; 4,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 2,91</t>
+          <t>-9,14; 3,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,8; 23,18</t>
+          <t>10,95; 23,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 1,9</t>
+          <t>-5,85; 1,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 0,95</t>
+          <t>-6,79; 1,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,44; 19,28</t>
+          <t>11,58; 19,8</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,74; 36,8</t>
+          <t>-47,45; 44,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,71; 27,49</t>
+          <t>-51,48; 27,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>59,6; 247,71</t>
+          <t>64,5; 261,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,29; 31,95</t>
+          <t>-35,28; 26,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,14; 17,5</t>
+          <t>-39,93; 21,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>46,73; 145,8</t>
+          <t>46,15; 145,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,98; 15,35</t>
+          <t>-35,1; 13,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,86; 7,86</t>
+          <t>-38,21; 9,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>67,42; 148,51</t>
+          <t>66,05; 151,66</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,74; -5,33</t>
+          <t>-14,7; -5,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,11; -3,93</t>
+          <t>-14,54; -4,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 4,7</t>
+          <t>-7,34; 4,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 6,91</t>
+          <t>-3,22; 6,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 7,31</t>
+          <t>-4,55; 7,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,92; 26,56</t>
+          <t>11,99; 26,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,54; -0,61</t>
+          <t>-7,63; -0,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 0,29</t>
+          <t>-7,18; 0,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,94; 15,33</t>
+          <t>4,63; 15,99</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-64,72; -31,71</t>
+          <t>-64,8; -32,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,93; -24,42</t>
+          <t>-64,24; -22,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-35,48; 28,72</t>
+          <t>-33,78; 28,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 44,95</t>
+          <t>-15,5; 42,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,62; 45,99</t>
+          <t>-20,57; 47,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>53,68; 161,26</t>
+          <t>54,28; 158,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-35,02; -3,6</t>
+          <t>-35,71; -4,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-35,43; 1,7</t>
+          <t>-34,62; 2,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>22,99; 89,88</t>
+          <t>20,25; 89,1</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,0; 14,58</t>
+          <t>1,85; 14,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 8,6</t>
+          <t>-2,39; 8,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,18; 17,08</t>
+          <t>5,48; 16,57</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,19; 19,38</t>
+          <t>3,09; 20,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 4,03</t>
+          <t>-10,99; 3,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,7; 19,97</t>
+          <t>1,79; 20,07</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,64; 14,92</t>
+          <t>5,0; 15,71</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 4,14</t>
+          <t>-4,77; 3,99</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,68; 17,49</t>
+          <t>6,97; 17,83</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>15,13; 306,38</t>
+          <t>13,73; 314,06</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-29,03; 172,31</t>
+          <t>-30,05; 173,15</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>47,88; 374,24</t>
+          <t>57,03; 384,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>14,19; 134,43</t>
+          <t>11,69; 129,79</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-48,1; 27,44</t>
+          <t>-46,99; 24,18</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>7,45; 136,26</t>
+          <t>9,43; 133,79</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>29,25; 142,48</t>
+          <t>29,33; 147,52</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-31,19; 39,01</t>
+          <t>-31,75; 38,56</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>44,18; 163,27</t>
+          <t>46,79; 174,87</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 4,98</t>
+          <t>-6,77; 5,25</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,65; -2,68</t>
+          <t>-13,37; -2,51</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6,52; 19,4</t>
+          <t>6,95; 19,75</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 7,08</t>
+          <t>-6,74; 7,41</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-17,74; -4,72</t>
+          <t>-17,53; -4,55</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>10,73; 25,84</t>
+          <t>11,84; 26,1</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 4,41</t>
+          <t>-5,38; 4,0</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-13,74; -5,41</t>
+          <t>-13,65; -5,33</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11,48; 20,44</t>
+          <t>11,3; 20,68</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-37,21; 38,82</t>
+          <t>-37,21; 41,22</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-72,55; -19,56</t>
+          <t>-71,39; -18,01</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>32,48; 151,48</t>
+          <t>34,71; 164,57</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 34,01</t>
+          <t>-25,47; 35,06</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-64,02; -21,34</t>
+          <t>-64,41; -18,68</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>37,18; 126,36</t>
+          <t>43,4; 127,98</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 25,14</t>
+          <t>-23,83; 21,5</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-61,97; -30,37</t>
+          <t>-62,64; -29,5</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>51,43; 117,05</t>
+          <t>49,66; 117,26</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,08; -0,2</t>
+          <t>-7,73; -0,52</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -3,11</t>
+          <t>-10,13; -2,75</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11,11; 21,42</t>
+          <t>11,29; 21,22</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,77; 10,66</t>
+          <t>1,61; 10,83</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 3,17</t>
+          <t>-5,67; 2,81</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>36,87; 58,93</t>
+          <t>37,05; 60,33</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 4,11</t>
+          <t>-1,98; 3,94</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,87; -1,4</t>
+          <t>-6,57; -0,71</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>26,77; 45,02</t>
+          <t>26,71; 45,16</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-45,13; -2,1</t>
+          <t>-43,55; -2,75</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-58,51; -21,03</t>
+          <t>-57,36; -19,55</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>62,09; 157,01</t>
+          <t>62,52; 157,79</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>8,92; 67,65</t>
+          <t>8,88; 69,16</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-28,22; 20,15</t>
+          <t>-28,83; 18,57</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>189,9; 375,12</t>
+          <t>185,69; 367,77</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 26,98</t>
+          <t>-10,98; 25,59</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-37,36; -8,83</t>
+          <t>-36,0; -4,44</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>151,42; 284,06</t>
+          <t>147,63; 280,4</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-15,12; -7,76</t>
+          <t>-15,06; -8,15</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-14,47; -7,26</t>
+          <t>-14,37; -7,2</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 2,72</t>
+          <t>-6,33; 2,12</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-16,88; -8,38</t>
+          <t>-17,05; -8,5</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-19,53; -10,43</t>
+          <t>-19,61; -10,97</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 8,68</t>
+          <t>-0,84; 8,38</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-14,76; -9,4</t>
+          <t>-14,75; -9,48</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-15,94; -10,27</t>
+          <t>-15,53; -10,11</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 4,23</t>
+          <t>-2,32; 4,37</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-68,36; -43,35</t>
+          <t>-68,61; -44,8</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-66,54; -40,87</t>
+          <t>-66,42; -40,11</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-28,02; 15,97</t>
+          <t>-29,29; 11,67</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-55,39; -32,86</t>
+          <t>-54,98; -32,55</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-63,67; -41,82</t>
+          <t>-63,69; -41,75</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 34,0</t>
+          <t>-2,84; 32,25</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-57,34; -41,65</t>
+          <t>-57,55; -41,51</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-61,99; -46,11</t>
+          <t>-62,15; -45,8</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 18,97</t>
+          <t>-9,17; 19,52</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-8,31; -5,01</t>
+          <t>-8,17; -4,91</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-9,32; -6,14</t>
+          <t>-9,36; -6,16</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,43</t>
+          <t>3,05; 7,34</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-5,23; -1,11</t>
+          <t>-5,24; -1,21</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-10,16; -6,37</t>
+          <t>-10,26; -6,28</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>14,29; 22,69</t>
+          <t>14,27; 22,73</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-6,31; -3,76</t>
+          <t>-6,24; -3,59</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-9,22; -6,87</t>
+          <t>-9,16; -6,67</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>9,79; 15,38</t>
+          <t>9,79; 15,53</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-47,57; -31,96</t>
+          <t>-47,56; -31,77</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-53,91; -39,32</t>
+          <t>-54,36; -39,41</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>17,86; 47,98</t>
+          <t>17,7; 47,54</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-21,38; -4,85</t>
+          <t>-21,61; -5,29</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-41,52; -28,39</t>
+          <t>-41,66; -28,05</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>58,91; 99,15</t>
+          <t>59,5; 100,86</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-30,45; -19,46</t>
+          <t>-30,22; -18,55</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-44,98; -35,69</t>
+          <t>-44,56; -34,59</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>47,68; 76,58</t>
+          <t>47,81; 80,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DC-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/DC-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 3,6</t>
+          <t>-7,35; 3,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 7,19</t>
+          <t>-3,78; 6,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 8,61</t>
+          <t>-5,47; 7,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 9,25</t>
+          <t>-2,81; 9,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 4,16</t>
+          <t>-4,36; 4,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 6,79</t>
+          <t>-1,45; 6,71</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-51,28; 39,79</t>
+          <t>-50,27; 42,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 78,37</t>
+          <t>-27,05; 78,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,9; 57,17</t>
+          <t>-24,65; 53,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 59,45</t>
+          <t>-11,86; 60,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,79; 32,29</t>
+          <t>-25,42; 33,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 53,04</t>
+          <t>-7,85; 53,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,79; -10,81</t>
+          <t>-19,78; -10,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,03; -11,39</t>
+          <t>-20,0; -11,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 3,43</t>
+          <t>-7,57; 3,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,73; -9,86</t>
+          <t>-20,61; -10,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,89; -17,24</t>
+          <t>-27,0; -17,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 10,05</t>
+          <t>-1,26; 10,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,95; -11,72</t>
+          <t>-18,93; -11,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,11; -15,7</t>
+          <t>-22,09; -15,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 5,42</t>
+          <t>-2,92; 5,21</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-80,08; -53,6</t>
+          <t>-79,7; -53,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-80,65; -59,09</t>
+          <t>-80,69; -59,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-34,62; 17,64</t>
+          <t>-32,36; 16,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,98; -32,91</t>
+          <t>-58,87; -35,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,15; -56,93</t>
+          <t>-75,79; -56,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 34,08</t>
+          <t>-3,51; 34,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-64,45; -46,46</t>
+          <t>-65,24; -47,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-76,32; -61,73</t>
+          <t>-75,66; -61,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 21,83</t>
+          <t>-10,07; 20,39</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 3,17</t>
+          <t>-6,02; 3,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 1,96</t>
+          <t>-6,66; 2,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,82; 18,77</t>
+          <t>7,85; 19,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 4,04</t>
+          <t>-7,7; 4,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 3,31</t>
+          <t>-9,02; 3,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,95; 23,23</t>
+          <t>10,75; 22,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 1,68</t>
+          <t>-5,42; 2,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 1,06</t>
+          <t>-6,1; 1,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,58; 19,8</t>
+          <t>11,5; 19,54</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-47,45; 44,06</t>
+          <t>-49,48; 39,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-51,48; 27,04</t>
+          <t>-55,91; 36,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>64,5; 261,55</t>
+          <t>58,16; 234,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,28; 26,5</t>
+          <t>-33,71; 24,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,93; 21,27</t>
+          <t>-40,74; 19,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>46,15; 145,06</t>
+          <t>47,66; 140,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-35,1; 13,02</t>
+          <t>-33,12; 16,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,21; 9,09</t>
+          <t>-37,11; 9,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66,05; 151,66</t>
+          <t>66,26; 152,68</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,7; -5,61</t>
+          <t>-15,15; -5,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,54; -4,06</t>
+          <t>-14,46; -3,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 4,77</t>
+          <t>-7,54; 4,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 6,62</t>
+          <t>-3,48; 6,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 7,62</t>
+          <t>-4,73; 6,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,99; 26,21</t>
+          <t>11,85; 26,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,63; -0,76</t>
+          <t>-7,73; -0,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 0,48</t>
+          <t>-7,69; 0,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,63; 15,99</t>
+          <t>5,28; 15,8</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-64,8; -32,19</t>
+          <t>-65,82; -32,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,24; -22,33</t>
+          <t>-64,67; -21,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-33,78; 28,58</t>
+          <t>-34,88; 25,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 42,49</t>
+          <t>-15,66; 43,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 47,67</t>
+          <t>-22,56; 41,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>54,28; 158,41</t>
+          <t>54,36; 164,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-35,71; -4,06</t>
+          <t>-36,58; -4,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-34,62; 2,99</t>
+          <t>-36,35; 0,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>20,25; 89,1</t>
+          <t>25,45; 90,88</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,85; 14,92</t>
+          <t>2,02; 13,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 8,55</t>
+          <t>-2,76; 8,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,48; 16,57</t>
+          <t>5,85; 17,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,09; 20,11</t>
+          <t>4,17; 20,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 3,44</t>
+          <t>-10,8; 3,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,79; 20,07</t>
+          <t>1,39; 19,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,0; 15,71</t>
+          <t>4,43; 15,23</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 3,99</t>
+          <t>-4,78; 4,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,97; 17,83</t>
+          <t>7,11; 17,92</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>13,73; 314,06</t>
+          <t>15,57; 294,39</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-30,05; 173,15</t>
+          <t>-31,5; 166,82</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>57,03; 384,45</t>
+          <t>54,23; 377,97</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,69; 129,79</t>
+          <t>19,77; 154,96</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-46,99; 24,18</t>
+          <t>-47,53; 27,13</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>9,43; 133,79</t>
+          <t>12,91; 138,99</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>29,33; 147,52</t>
+          <t>27,27; 144,97</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-31,75; 38,56</t>
+          <t>-32,34; 44,18</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>46,79; 174,87</t>
+          <t>46,54; 174,66</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 5,25</t>
+          <t>-6,87; 5,67</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,37; -2,51</t>
+          <t>-12,95; -2,16</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6,95; 19,75</t>
+          <t>6,63; 19,38</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 7,41</t>
+          <t>-7,63; 6,84</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-17,53; -4,55</t>
+          <t>-18,6; -4,96</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>11,84; 26,1</t>
+          <t>11,58; 25,73</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 4,0</t>
+          <t>-5,58; 4,14</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-13,65; -5,33</t>
+          <t>-14,1; -5,58</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11,3; 20,68</t>
+          <t>11,18; 20,7</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-37,21; 41,22</t>
+          <t>-38,67; 44,45</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-71,39; -18,01</t>
+          <t>-69,98; -15,61</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>34,71; 164,57</t>
+          <t>32,62; 153,3</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-25,47; 35,06</t>
+          <t>-27,37; 31,95</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-64,41; -18,68</t>
+          <t>-65,03; -22,56</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>43,4; 127,98</t>
+          <t>41,2; 124,82</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 21,5</t>
+          <t>-24,49; 23,0</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-62,64; -29,5</t>
+          <t>-62,16; -30,34</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>49,66; 117,26</t>
+          <t>49,43; 116,38</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,73; -0,52</t>
+          <t>-7,8; -0,17</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-10,13; -2,75</t>
+          <t>-10,06; -2,42</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11,29; 21,22</t>
+          <t>11,03; 20,75</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,61; 10,83</t>
+          <t>1,53; 10,95</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 2,81</t>
+          <t>-6,04; 2,54</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>37,05; 60,33</t>
+          <t>36,69; 58,72</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 3,94</t>
+          <t>-1,85; 3,85</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,57; -0,71</t>
+          <t>-6,98; -1,11</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>26,71; 45,16</t>
+          <t>26,7; 46,3</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-43,55; -2,75</t>
+          <t>-44,62; -0,57</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-57,36; -19,55</t>
+          <t>-56,91; -17,61</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>62,52; 157,79</t>
+          <t>60,8; 153,38</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>8,88; 69,16</t>
+          <t>7,56; 69,81</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-28,83; 18,57</t>
+          <t>-29,72; 16,37</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>185,69; 367,77</t>
+          <t>185,69; 370,06</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 25,59</t>
+          <t>-9,94; 25,37</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-36,0; -4,44</t>
+          <t>-37,89; -7,59</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>147,63; 280,4</t>
+          <t>147,02; 291,36</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-15,06; -8,15</t>
+          <t>-15,02; -7,86</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-14,37; -7,2</t>
+          <t>-14,61; -7,59</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 2,12</t>
+          <t>-6,82; 2,34</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-17,05; -8,5</t>
+          <t>-16,91; -8,64</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-19,61; -10,97</t>
+          <t>-19,27; -11,52</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 8,38</t>
+          <t>0,02; 8,88</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-14,75; -9,48</t>
+          <t>-15,08; -9,45</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-15,53; -10,11</t>
+          <t>-15,92; -10,54</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 4,37</t>
+          <t>-2,45; 4,23</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-68,61; -44,8</t>
+          <t>-68,32; -44,03</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-66,42; -40,11</t>
+          <t>-67,2; -42,06</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-29,29; 11,67</t>
+          <t>-30,24; 13,07</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-54,98; -32,55</t>
+          <t>-55,21; -33,06</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-63,69; -41,75</t>
+          <t>-63,7; -43,66</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 32,25</t>
+          <t>-0,12; 33,57</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-57,55; -41,51</t>
+          <t>-58,6; -41,75</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-62,15; -45,8</t>
+          <t>-62,17; -46,99</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 19,52</t>
+          <t>-9,8; 18,67</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-8,17; -4,91</t>
+          <t>-8,54; -5,14</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-9,36; -6,16</t>
+          <t>-9,46; -6,31</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>3,05; 7,34</t>
+          <t>3,36; 7,4</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-5,24; -1,21</t>
+          <t>-5,43; -1,33</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-10,26; -6,28</t>
+          <t>-10,28; -6,26</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>14,27; 22,73</t>
+          <t>14,06; 22,22</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-6,24; -3,59</t>
+          <t>-6,23; -3,63</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-9,16; -6,67</t>
+          <t>-9,17; -6,72</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>9,79; 15,53</t>
+          <t>9,72; 15,22</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-47,56; -31,77</t>
+          <t>-48,83; -32,53</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-54,36; -39,41</t>
+          <t>-54,37; -39,87</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>17,7; 47,54</t>
+          <t>19,37; 47,57</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-21,61; -5,29</t>
+          <t>-22,36; -5,96</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-41,66; -28,05</t>
+          <t>-42,03; -28,04</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>59,5; 100,86</t>
+          <t>57,47; 95,9</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-30,22; -18,55</t>
+          <t>-30,34; -18,97</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-44,56; -34,59</t>
+          <t>-44,69; -35,05</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>47,81; 80,64</t>
+          <t>47,25; 76,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DC-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/DC-Provincia-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>0,04</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,23; -0,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 3,63</t>
+          <t>-8,77; 2,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 6,92</t>
+          <t>-6,44; 4,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; 12,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 7,99</t>
+          <t>-2,31; 12,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 9,14</t>
+          <t>-5,35; 6,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,29; 4,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 4,23</t>
+          <t>-3,22; 5,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 6,71</t>
+          <t>-4,4; 4,08</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-15,33%</t>
+          <t>-21,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>-7,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>24,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,3%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>0,22%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,42; -0,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,27; 42,78</t>
+          <t>-52,78; 28,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,05; 78,97</t>
+          <t>-38,9; 43,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,84; 76,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,65; 53,6</t>
+          <t>-9,73; 72,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 60,94</t>
+          <t>-21,57; 37,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,45; 30,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,42; 33,57</t>
+          <t>-17,15; 38,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 53,04</t>
+          <t>-21,55; 28,6</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-15,16</t>
+          <t>-15,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-15,59</t>
+          <t>-15,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-15,77</t>
+          <t>-24,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-22,23</t>
+          <t>-33,75</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>-7,62</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-15,43</t>
+          <t>-20,06</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-18,93</t>
+          <t>-24,94</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-5,57</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,78; -10,55</t>
+          <t>-19,89; -10,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,0; -11,58</t>
+          <t>-20,39; -11,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 3,11</t>
+          <t>-8,6; 2,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,61; -10,7</t>
+          <t>-30,64; -19,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-27,0; -17,34</t>
+          <t>-39,15; -28,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 10,05</t>
+          <t>-13,12; -1,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,93; -11,92</t>
+          <t>-23,99; -16,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,09; -15,39</t>
+          <t>-28,31; -21,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 5,21</t>
+          <t>-10,08; -1,7</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-69,64%</t>
+          <t>-69,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-71,64%</t>
+          <t>-72,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-11,24%</t>
+          <t>-14,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-48,16%</t>
+          <t>-55,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-67,87%</t>
+          <t>-75,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>-16,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-56,5%</t>
+          <t>-59,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-69,28%</t>
+          <t>-74,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>-16,57%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-79,7; -53,67</t>
+          <t>-79,0; -53,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-80,69; -59,4</t>
+          <t>-81,01; -60,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,36; 16,47</t>
+          <t>-35,08; 12,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,87; -35,75</t>
+          <t>-63,76; -45,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-75,79; -56,99</t>
+          <t>-81,04; -67,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 34,27</t>
+          <t>-27,12; -4,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-65,24; -47,2</t>
+          <t>-66,61; -52,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-75,66; -61,77</t>
+          <t>-79,39; -68,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 20,39</t>
+          <t>-28,42; -5,43</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,39</t>
+          <t>12,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>17,1</t>
+          <t>15,17</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>15,61</t>
+          <t>14,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 3,0</t>
+          <t>-5,88; 2,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 2,54</t>
+          <t>-6,57; 2,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,85; 19,01</t>
+          <t>7,07; 18,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 4,09</t>
+          <t>-7,6; 4,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 3,18</t>
+          <t>-8,61; 4,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,75; 22,98</t>
+          <t>8,73; 20,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 2,2</t>
+          <t>-5,37; 2,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 1,18</t>
+          <t>-6,01; 1,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,5; 19,54</t>
+          <t>10,04; 18,08</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-15,87%</t>
+          <t>-15,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-21,58%</t>
+          <t>-20,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>135,98%</t>
+          <t>124,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,5%</t>
+          <t>-6,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-15,78%</t>
+          <t>-12,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>87,17%</t>
+          <t>70,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-11,55%</t>
+          <t>-9,23%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-17,6%</t>
+          <t>-15,3%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>105,12%</t>
+          <t>88,52%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,48; 39,59</t>
+          <t>-49,09; 36,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-55,91; 36,91</t>
+          <t>-52,56; 34,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>58,16; 234,7</t>
+          <t>53,72; 221,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,71; 24,34</t>
+          <t>-31,08; 25,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,74; 19,07</t>
+          <t>-36,67; 20,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,66; 140,95</t>
+          <t>35,31; 117,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-33,12; 16,53</t>
+          <t>-30,49; 20,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,11; 9,16</t>
+          <t>-34,17; 11,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66,26; 152,68</t>
+          <t>55,53; 130,8</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-9,97</t>
+          <t>-8,71</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,18</t>
+          <t>-9,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,31</t>
+          <t>20,87</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>11,69</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,15; -5,44</t>
+          <t>-14,25; -3,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,46; -3,88</t>
+          <t>-14,88; -4,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 4,6</t>
+          <t>-8,55; 3,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 6,8</t>
+          <t>-1,01; 11,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 6,79</t>
+          <t>-4,29; 8,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,85; 26,37</t>
+          <t>8,19; 44,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,73; -0,7</t>
+          <t>-5,42; 3,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 0,06</t>
+          <t>-7,68; 0,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,28; 15,8</t>
+          <t>3,88; 30,38</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-51,49%</t>
+          <t>-43,25%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-47,43%</t>
+          <t>-46,93%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-8,35%</t>
+          <t>-13,08%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-21,62%</t>
+          <t>-6,03%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-19,33%</t>
+          <t>-16,11%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>51,09%</t>
+          <t>55,9%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-65,82; -32,32</t>
+          <t>-59,92; -18,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,67; -21,83</t>
+          <t>-63,98; -21,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-34,88; 25,95</t>
+          <t>-38,11; 21,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 43,13</t>
+          <t>-4,5; 62,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 41,73</t>
+          <t>-16,72; 44,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>54,36; 164,21</t>
+          <t>36,02; 225,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-36,58; -4,34</t>
+          <t>-23,23; 17,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-36,35; 0,59</t>
+          <t>-33,13; 4,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>25,45; 90,88</t>
+          <t>16,86; 156,47</t>
         </is>
       </c>
     </row>
@@ -1496,12 +1496,12 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>9,57</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1511,32 +1511,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>11,53</t>
+          <t>20,34</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>12,27</t>
+          <t>9,11</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>9,79</t>
+          <t>15,08</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>12,71</t>
+          <t>11,16</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,02; 13,86</t>
+          <t>3,76; 16,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 8,12</t>
+          <t>-1,81; 9,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,85; 17,51</t>
+          <t>5,84; 17,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,17; 20,97</t>
+          <t>11,89; 29,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 3,77</t>
+          <t>-7,56; 7,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,39; 19,89</t>
+          <t>-7,11; 18,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,43; 15,23</t>
+          <t>9,69; 21,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 4,46</t>
+          <t>-2,62; 7,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,11; 17,92</t>
+          <t>2,69; 16,77</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>112,0%</t>
+          <t>135,21%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>52,65%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>163,75%</t>
+          <t>163,65%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>61,9%</t>
+          <t>106,48%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-17,08%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>65,92%</t>
+          <t>47,68%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>75,81%</t>
+          <t>114,6%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-1,6%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>98,46%</t>
+          <t>84,81%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>15,57; 294,39</t>
+          <t>33,67; 351,38</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,5; 166,82</t>
+          <t>-24,03; 181,57</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>54,23; 377,97</t>
+          <t>54,13; 376,47</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>19,77; 154,96</t>
+          <t>50,88; 199,5</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-47,53; 27,13</t>
+          <t>-32,8; 53,21</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>12,91; 138,99</t>
+          <t>-23,13; 108,41</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>27,27; 144,97</t>
+          <t>58,92; 194,63</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-32,34; 44,18</t>
+          <t>-17,73; 68,08</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>46,54; 174,66</t>
+          <t>21,34; 159,44</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-7,82</t>
+          <t>-6,39</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>13,08</t>
+          <t>12,32</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-11,67</t>
+          <t>-11,68</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>19,23</t>
+          <t>16,64</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-9,76</t>
+          <t>-9,05</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>16,07</t>
+          <t>14,23</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 5,67</t>
+          <t>-6,61; 5,88</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,95; -2,16</t>
+          <t>-12,05; -0,43</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6,63; 19,38</t>
+          <t>5,69; 18,71</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 6,84</t>
+          <t>-7,03; 7,41</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-18,6; -4,96</t>
+          <t>-18,4; -4,46</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>11,58; 25,73</t>
+          <t>8,9; 23,25</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 4,14</t>
+          <t>-5,69; 4,16</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-14,1; -5,58</t>
+          <t>-13,34; -4,29</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11,18; 20,7</t>
+          <t>9,01; 18,87</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-5,69%</t>
+          <t>-5,78%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-49,26%</t>
+          <t>-39,27%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>82,38%</t>
+          <t>75,78%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-1,09%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-47,63%</t>
+          <t>-43,28%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>78,49%</t>
+          <t>61,65%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-2,92%</t>
+          <t>-2,17%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-48,2%</t>
+          <t>-41,73%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>79,4%</t>
+          <t>65,58%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-38,67; 44,45</t>
+          <t>-36,55; 46,59</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-69,98; -15,61</t>
+          <t>-63,43; -1,11</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>32,62; 153,3</t>
+          <t>25,96; 143,44</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-27,37; 31,95</t>
+          <t>-23,72; 31,53</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-65,03; -22,56</t>
+          <t>-61,38; -20,59</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>41,2; 124,82</t>
+          <t>28,75; 101,93</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-24,49; 23,0</t>
+          <t>-23,49; 21,73</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-62,16; -30,34</t>
+          <t>-55,27; -22,65</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>49,43; 116,38</t>
+          <t>37,14; 96,35</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-6,34</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>16,13</t>
+          <t>14,85</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>6,11</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>44,52</t>
+          <t>46,48</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>32,19</t>
+          <t>33,35</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -0,17</t>
+          <t>-7,64; 0,18</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-10,06; -2,42</t>
+          <t>-9,0; -1,34</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11,03; 20,75</t>
+          <t>9,53; 19,59</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,53; 10,95</t>
+          <t>1,42; 11,06</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 2,54</t>
+          <t>-3,23; 5,73</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>36,69; 58,72</t>
+          <t>34,45; 64,63</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 3,85</t>
+          <t>-1,77; 4,3</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,98; -1,11</t>
+          <t>-5,1; 1,06</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>26,7; 46,3</t>
+          <t>24,41; 52,16</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-27,18%</t>
+          <t>-25,82%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-40,49%</t>
+          <t>-33,02%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>102,96%</t>
+          <t>91,3%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>30,49%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-9,33%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>249,1%</t>
+          <t>228,94%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-23,45%</t>
+          <t>-9,99%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>191,72%</t>
+          <t>182,01%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-44,62; -0,57</t>
+          <t>-43,19; 1,1</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-56,91; -17,61</t>
+          <t>-50,51; -8,97</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>60,8; 153,38</t>
+          <t>52,97; 139,55</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>7,56; 69,81</t>
+          <t>6,33; 60,88</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-29,72; 16,37</t>
+          <t>-14,52; 31,22</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>185,69; 370,06</t>
+          <t>160,65; 369,97</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 25,37</t>
+          <t>-9,28; 25,91</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-37,89; -7,59</t>
+          <t>-25,34; 6,53</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>147,02; 291,36</t>
+          <t>128,47; 301,36</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-11,39</t>
+          <t>-13,45</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-10,86</t>
+          <t>-12,61</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-8,11</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-12,72</t>
+          <t>-15,99</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>-15,29</t>
+          <t>-18,47</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>-12,07</t>
+          <t>-14,75</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>-13,13</t>
+          <t>-15,6</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-5,97</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-15,02; -7,86</t>
+          <t>-16,88; -9,87</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-14,61; -7,59</t>
+          <t>-16,49; -8,97</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 2,34</t>
+          <t>-17,41; -1,76</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-16,91; -8,64</t>
+          <t>-20,13; -11,47</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-19,27; -11,52</t>
+          <t>-22,79; -14,15</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,02; 8,88</t>
+          <t>-5,57; 3,66</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-15,08; -9,45</t>
+          <t>-17,62; -11,95</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-15,92; -10,54</t>
+          <t>-18,72; -12,87</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 4,23</t>
+          <t>-15,41; -1,18</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-58,2%</t>
+          <t>-60,65%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-55,5%</t>
+          <t>-56,85%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-8,66%</t>
+          <t>-36,58%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-45,03%</t>
+          <t>-47,32%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>-54,12%</t>
+          <t>-54,65%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>-3,35%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>-50,22%</t>
+          <t>-52,41%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>-54,63%</t>
+          <t>-55,46%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>-21,2%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-68,32; -44,03</t>
+          <t>-70,23; -48,61</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-67,2; -42,06</t>
+          <t>-67,25; -45,01</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-30,24; 13,07</t>
+          <t>-71,52; -8,35</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-55,21; -33,06</t>
+          <t>-56,35; -36,96</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-63,7; -43,66</t>
+          <t>-63,54; -45,75</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 33,57</t>
+          <t>-15,2; 11,54</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-58,6; -41,75</t>
+          <t>-59,45; -44,8</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-62,17; -46,99</t>
+          <t>-62,14; -48,61</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 18,67</t>
+          <t>-51,57; -4,25</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-6,66</t>
+          <t>-7,17</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-7,82</t>
+          <t>-8,03</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>-8,3</t>
+          <t>-9,49</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>16,89</t>
+          <t>14,49</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>-4,94</t>
+          <t>-5,55</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>-8,04</t>
+          <t>-8,75</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>11,63</t>
+          <t>8,9</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-8,54; -5,14</t>
+          <t>-8,94; -5,53</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-9,46; -6,31</t>
+          <t>-9,69; -6,46</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,4</t>
+          <t>-1,67; 5,19</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-5,43; -1,33</t>
+          <t>-6,32; -1,96</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -6,26</t>
+          <t>-11,56; -7,43</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>14,06; 22,22</t>
+          <t>9,7; 24,86</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-6,23; -3,63</t>
+          <t>-6,96; -4,2</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-9,17; -6,72</t>
+          <t>-9,97; -7,41</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>9,72; 15,22</t>
+          <t>5,45; 15,58</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-40,48%</t>
+          <t>-40,96%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-47,53%</t>
+          <t>-45,88%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>32,32%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>-14,15%</t>
+          <t>-14,44%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>-35,45%</t>
+          <t>-34,07%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>72,12%</t>
+          <t>51,99%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>-24,73%</t>
+          <t>-24,38%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>-40,24%</t>
+          <t>-38,42%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>58,18%</t>
+          <t>39,07%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-48,83; -32,53</t>
+          <t>-48,6; -33,0</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-54,37; -39,87</t>
+          <t>-52,57; -38,16</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>19,37; 47,57</t>
+          <t>-9,34; 30,64</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-22,36; -5,96</t>
+          <t>-21,6; -7,21</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-42,03; -28,04</t>
+          <t>-39,64; -27,54</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>57,47; 95,9</t>
+          <t>34,21; 90,53</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-30,34; -18,97</t>
+          <t>-29,47; -18,92</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-44,69; -35,05</t>
+          <t>-42,53; -33,43</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>47,25; 76,67</t>
+          <t>24,01; 68,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DC-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/DC-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,23; -0,07</t>
+          <t>-10,3; -0,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 2,8</t>
+          <t>-8,91; 2,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 4,68</t>
+          <t>-6,66; 4,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 12,75</t>
+          <t>-2,81; 12,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 12,23</t>
+          <t>-1,98; 12,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 6,47</t>
+          <t>-5,17; 7,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 4,56</t>
+          <t>-4,47; 4,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 5,64</t>
+          <t>-3,6; 5,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 4,08</t>
+          <t>-4,63; 4,13</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-64,42; -0,14</t>
+          <t>-63,13; 3,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-52,78; 28,6</t>
+          <t>-52,7; 25,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,9; 43,11</t>
+          <t>-39,9; 41,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 76,34</t>
+          <t>-10,79; 72,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 72,6</t>
+          <t>-9,01; 68,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,57; 37,89</t>
+          <t>-20,44; 44,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,45; 30,96</t>
+          <t>-22,84; 32,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 38,81</t>
+          <t>-18,67; 36,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-21,55; 28,6</t>
+          <t>-23,51; 28,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,89; -10,65</t>
+          <t>-20,01; -10,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,39; -11,91</t>
+          <t>-20,4; -11,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 2,24</t>
+          <t>-8,35; 2,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,64; -19,33</t>
+          <t>-30,39; -18,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-39,15; -28,49</t>
+          <t>-39,1; -28,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,12; -1,68</t>
+          <t>-13,38; -1,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-23,99; -16,26</t>
+          <t>-23,88; -16,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-28,31; -21,21</t>
+          <t>-28,32; -21,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,08; -1,7</t>
+          <t>-9,51; -1,18</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-79,0; -53,82</t>
+          <t>-79,25; -54,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-81,01; -60,15</t>
+          <t>-81,93; -60,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,08; 12,4</t>
+          <t>-34,71; 11,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-63,76; -45,35</t>
+          <t>-63,51; -45,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,04; -67,8</t>
+          <t>-81,07; -67,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,12; -4,06</t>
+          <t>-27,83; -4,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-66,61; -52,11</t>
+          <t>-66,75; -51,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-79,39; -68,23</t>
+          <t>-79,32; -67,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-28,42; -5,43</t>
+          <t>-26,89; -3,36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 2,89</t>
+          <t>-6,37; 3,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 2,68</t>
+          <t>-6,1; 2,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,07; 18,19</t>
+          <t>7,4; 18,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 4,58</t>
+          <t>-7,6; 4,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 4,16</t>
+          <t>-8,63; 3,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,73; 20,86</t>
+          <t>9,34; 21,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 2,75</t>
+          <t>-5,45; 2,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 1,52</t>
+          <t>-6,28; 1,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,04; 18,08</t>
+          <t>9,81; 17,85</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,09; 36,23</t>
+          <t>-50,0; 40,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,56; 34,97</t>
+          <t>-51,33; 29,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>53,72; 221,94</t>
+          <t>55,11; 236,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,08; 25,75</t>
+          <t>-32,34; 25,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 20,99</t>
+          <t>-35,02; 20,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,31; 117,39</t>
+          <t>37,84; 116,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,49; 20,31</t>
+          <t>-30,86; 15,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-34,17; 11,02</t>
+          <t>-34,95; 12,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>55,53; 130,8</t>
+          <t>52,11; 129,19</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,25; -3,42</t>
+          <t>-13,81; -3,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,88; -4,12</t>
+          <t>-15,13; -4,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 3,7</t>
+          <t>-8,77; 4,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 11,63</t>
+          <t>-0,24; 11,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 8,27</t>
+          <t>-3,41; 8,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,19; 44,59</t>
+          <t>8,72; 44,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 3,16</t>
+          <t>-5,36; 2,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 0,78</t>
+          <t>-8,2; 0,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,88; 30,38</t>
+          <t>3,37; 30,63</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-59,92; -18,73</t>
+          <t>-59,82; -15,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-63,98; -21,06</t>
+          <t>-64,56; -23,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-38,11; 21,68</t>
+          <t>-38,09; 23,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 62,3</t>
+          <t>-0,7; 62,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 44,11</t>
+          <t>-14,41; 46,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>36,02; 225,53</t>
+          <t>36,46; 228,2</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 17,01</t>
+          <t>-23,61; 15,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,13; 4,19</t>
+          <t>-34,8; 1,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16,86; 156,47</t>
+          <t>15,11; 158,96</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,76; 16,32</t>
+          <t>3,05; 16,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 9,0</t>
+          <t>-1,56; 9,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,84; 17,42</t>
+          <t>6,0; 17,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,89; 29,25</t>
+          <t>11,64; 29,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 7,66</t>
+          <t>-6,98; 7,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 18,12</t>
+          <t>-5,35; 18,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,69; 21,14</t>
+          <t>10,04; 20,63</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 7,26</t>
+          <t>-2,32; 6,99</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,69; 16,77</t>
+          <t>1,92; 16,57</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>33,67; 351,38</t>
+          <t>28,57; 349,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 181,57</t>
+          <t>-17,81; 206,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>54,13; 376,47</t>
+          <t>54,15; 354,83</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>50,88; 199,5</t>
+          <t>49,51; 200,25</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-32,8; 53,21</t>
+          <t>-31,01; 50,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-23,13; 108,41</t>
+          <t>-22,79; 115,6</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>58,92; 194,63</t>
+          <t>60,12; 188,61</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 68,08</t>
+          <t>-15,45; 65,7</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>21,34; 159,44</t>
+          <t>19,61; 148,5</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 5,88</t>
+          <t>-7,3; 5,24</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,05; -0,43</t>
+          <t>-12,3; -0,1</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,69; 18,71</t>
+          <t>5,72; 18,52</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 7,41</t>
+          <t>-7,9; 7,22</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-18,4; -4,46</t>
+          <t>-18,33; -4,67</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>8,9; 23,25</t>
+          <t>9,74; 23,76</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 4,16</t>
+          <t>-5,05; 4,52</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-13,34; -4,29</t>
+          <t>-13,63; -4,14</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>9,01; 18,87</t>
+          <t>9,38; 19,07</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-36,55; 46,59</t>
+          <t>-35,85; 42,75</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-63,43; -1,11</t>
+          <t>-62,12; 0,68</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>25,96; 143,44</t>
+          <t>30,24; 149,28</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-23,72; 31,53</t>
+          <t>-25,61; 31,37</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-61,38; -20,59</t>
+          <t>-60,61; -19,85</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>28,75; 101,93</t>
+          <t>29,62; 103,57</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 21,73</t>
+          <t>-20,7; 22,86</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-55,27; -22,65</t>
+          <t>-56,56; -20,41</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>37,14; 96,35</t>
+          <t>37,79; 99,02</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 0,18</t>
+          <t>-8,3; -0,28</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,0; -1,34</t>
+          <t>-8,91; -0,99</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>9,53; 19,59</t>
+          <t>9,66; 19,82</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,42; 11,06</t>
+          <t>1,33; 10,78</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 5,73</t>
+          <t>-2,84; 6,08</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>34,45; 64,63</t>
+          <t>34,68; 63,16</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 4,3</t>
+          <t>-2,08; 4,52</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 1,06</t>
+          <t>-4,66; 1,0</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>24,41; 52,16</t>
+          <t>24,4; 53,2</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-43,19; 1,1</t>
+          <t>-44,19; -1,84</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-50,51; -8,97</t>
+          <t>-49,55; -8,92</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>52,97; 139,55</t>
+          <t>53,04; 141,41</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>6,33; 60,88</t>
+          <t>6,12; 59,46</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 31,22</t>
+          <t>-13,11; 33,48</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>160,65; 369,97</t>
+          <t>165,37; 363,52</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 25,91</t>
+          <t>-10,95; 26,9</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 6,53</t>
+          <t>-23,4; 5,89</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>128,47; 301,36</t>
+          <t>127,43; 288,36</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-16,88; -9,87</t>
+          <t>-17,12; -10,1</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-16,49; -8,97</t>
+          <t>-16,06; -8,75</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-17,41; -1,76</t>
+          <t>-18,01; -1,57</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-20,13; -11,47</t>
+          <t>-20,65; -11,77</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-22,79; -14,15</t>
+          <t>-23,17; -14,06</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 3,66</t>
+          <t>-5,78; 3,61</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-17,62; -11,95</t>
+          <t>-17,63; -11,88</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-18,72; -12,87</t>
+          <t>-18,43; -12,64</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-15,41; -1,18</t>
+          <t>-14,96; -1,11</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-70,23; -48,61</t>
+          <t>-70,45; -49,28</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-67,25; -45,01</t>
+          <t>-66,06; -43,19</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-71,52; -8,35</t>
+          <t>-74,81; -7,74</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-56,35; -36,96</t>
+          <t>-56,36; -36,81</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-63,54; -45,75</t>
+          <t>-63,14; -44,81</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 11,54</t>
+          <t>-15,63; 11,56</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-59,45; -44,8</t>
+          <t>-59,07; -44,55</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-62,14; -48,61</t>
+          <t>-62,07; -47,3</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-51,57; -4,25</t>
+          <t>-50,7; -4,3</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-8,94; -5,53</t>
+          <t>-8,69; -5,44</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-9,69; -6,46</t>
+          <t>-9,59; -6,4</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 5,19</t>
+          <t>-1,89; 5,08</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-6,32; -1,96</t>
+          <t>-6,16; -2,0</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-11,56; -7,43</t>
+          <t>-11,53; -7,47</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>9,7; 24,86</t>
+          <t>9,71; 25,4</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-6,96; -4,2</t>
+          <t>-6,92; -4,23</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-9,97; -7,41</t>
+          <t>-10,04; -7,44</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>5,45; 15,58</t>
+          <t>5,53; 16,15</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-48,6; -33,0</t>
+          <t>-47,45; -32,95</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-52,57; -38,16</t>
+          <t>-52,57; -37,94</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 30,64</t>
+          <t>-9,58; 30,35</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-21,6; -7,21</t>
+          <t>-21,15; -7,26</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-39,64; -27,54</t>
+          <t>-40,24; -28,01</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>34,21; 90,53</t>
+          <t>34,71; 93,93</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-29,47; -18,92</t>
+          <t>-29,6; -19,24</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-42,53; -33,43</t>
+          <t>-42,51; -33,46</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>24,01; 68,35</t>
+          <t>23,99; 70,52</t>
         </is>
       </c>
     </row>
